--- a/analysis_draft2017b/csv/tS04.xlsx
+++ b/analysis_draft2017b/csv/tS04.xlsx
@@ -43,40 +43,40 @@
     <t>Lifetime, days</t>
   </si>
   <si>
-    <t>+3755.56 ± 25.34</t>
-  </si>
-  <si>
-    <t>-3779.35 ± 25.92</t>
-  </si>
-  <si>
-    <t>-1878.97 ± 11.42</t>
-  </si>
-  <si>
-    <t>-1900.39 ± 16.50</t>
-  </si>
-  <si>
-    <t>+41.61 ± 0.30</t>
-  </si>
-  <si>
-    <t>+4.02 ± 0.04</t>
-  </si>
-  <si>
-    <t>+5507.12 ± 13.33</t>
-  </si>
-  <si>
-    <t>-5556.14 ± 13.47</t>
-  </si>
-  <si>
-    <t>-2327.83 ± 4.77</t>
-  </si>
-  <si>
-    <t>-3228.31 ± 9.01</t>
-  </si>
-  <si>
-    <t>+9.69 ± 0.02</t>
-  </si>
-  <si>
-    <t>+0.64 ± 0.00</t>
+    <t>+3789.26 ± 21.87</t>
+  </si>
+  <si>
+    <t>-3812.70 ± 21.36</t>
+  </si>
+  <si>
+    <t>-1898.77 ± 8.88</t>
+  </si>
+  <si>
+    <t>-1913.94 ± 14.32</t>
+  </si>
+  <si>
+    <t>+41.83 ± 0.24</t>
+  </si>
+  <si>
+    <t>+4.00 ± 0.03</t>
+  </si>
+  <si>
+    <t>+5510.06 ± 14.81</t>
+  </si>
+  <si>
+    <t>-5559.09 ± 14.96</t>
+  </si>
+  <si>
+    <t>-2327.11 ± 5.73</t>
+  </si>
+  <si>
+    <t>-3231.97 ± 9.45</t>
+  </si>
+  <si>
+    <t>+9.66 ± 0.02</t>
+  </si>
+  <si>
+    <t>+0.63 ± 0.00</t>
   </si>
 </sst>
 </file>

--- a/analysis_draft2017b/csv/tS04.xlsx
+++ b/analysis_draft2017b/csv/tS04.xlsx
@@ -16,12 +16,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
+    <t>Sea salt aerosol</t>
+  </si>
+  <si>
     <t>Dust aerosol</t>
   </si>
   <si>
-    <t>Sea salt aerosol</t>
-  </si>
-  <si>
     <t>Sources, Tg/yr</t>
   </si>
   <si>
@@ -43,6 +43,24 @@
     <t>Lifetime, days</t>
   </si>
   <si>
+    <t>+5510.06 ± 14.81</t>
+  </si>
+  <si>
+    <t>-5559.09 ± 14.96</t>
+  </si>
+  <si>
+    <t>-2327.11 ± 5.73</t>
+  </si>
+  <si>
+    <t>-3231.97 ± 9.45</t>
+  </si>
+  <si>
+    <t>+9.66 ± 0.02</t>
+  </si>
+  <si>
+    <t>+0.63 ± 0.00</t>
+  </si>
+  <si>
     <t>+3789.26 ± 21.87</t>
   </si>
   <si>
@@ -59,24 +77,6 @@
   </si>
   <si>
     <t>+4.00 ± 0.03</t>
-  </si>
-  <si>
-    <t>+5510.06 ± 14.81</t>
-  </si>
-  <si>
-    <t>-5559.09 ± 14.96</t>
-  </si>
-  <si>
-    <t>-2327.11 ± 5.73</t>
-  </si>
-  <si>
-    <t>-3231.97 ± 9.45</t>
-  </si>
-  <si>
-    <t>+9.66 ± 0.02</t>
-  </si>
-  <si>
-    <t>+0.63 ± 0.00</t>
   </si>
 </sst>
 </file>
